--- a/mahjong/application/src/test/resources/testdata/room/in/rooms-1.xlsx
+++ b/mahjong/application/src/test/resources/testdata/room/in/rooms-1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13840" windowHeight="2250"/>
   </bookViews>
   <sheets>
     <sheet name="room" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>room_id</t>
   </si>
@@ -30,31 +30,40 @@
     <t>deleted_flg</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2022-02-20 15:05:19</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>testRoom1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>created_timestamp</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>created_user</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>updated_timestamp</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>updated_user</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>testRoom</t>
-  </si>
-  <si>
-    <t>0</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2022-02-20 15:05:19</t>
-  </si>
-  <si>
-    <t>default</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -103,13 +112,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -393,10 +402,13 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
@@ -409,39 +421,39 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
